--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1108 +436,1388 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>xDegrees</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>yDegrees</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Population</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>AffectedPop</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>WorkPop</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MaxDistance</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Balite</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>14.8956</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>120.7855</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5016</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>2144</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Balungao</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>14.9143</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>120.7622</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5720</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>3366</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Buguion</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>14.894</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>120.7985</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3841</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2196</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Bulusan</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>14.9076</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>120.7455</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2603</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1721</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Calizon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>14.9125</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>120.753</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2221</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1387</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Calumpang</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>14.8845</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>120.7838</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3517</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2784</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Caniogan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>14.9054</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>120.7733</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4510</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2869</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Corazon</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>14.9128</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>120.7686</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2175</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1647</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Frances</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>14.9153</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>120.7532</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>6129</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>3819</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Gatbuca</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>14.9218</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>120.7685</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>6384</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>115</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>4250</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Gugo</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>14.9014</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>120.7548</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1960</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>1179</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Iba Este</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>14.8899</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>120.7673</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>4161</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1828</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Iba O'Este</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>14.8919</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>120.7635</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>14085</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>601</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>8095</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Longos</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>14.8748</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>120.7866</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>4265</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>2293</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Meysulao</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>14.9078</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>120.7397</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>4280</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>2687</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Meyto</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>14.8831</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>120.7295</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2925</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>1975</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Palimbang</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>14.8994</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>120.7756</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1684</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>1424</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Panducot</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>14.8761</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>120.738</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1752</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>1713</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Poblacion</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>14.9157</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>120.7672</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1785</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>1294</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Pungo</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>14.9023</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>120.7914</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>9528</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>5486</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>San Jose</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>14.8838</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>120.7395</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>5661</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>3629</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>San Marcos</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>14.8976</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>120.7797</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2671</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>1471</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>San Miguel</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>14.917</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>120.7427</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>6005</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>3287</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Santa Lucia</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>14.8982</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>120.736</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2460</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>1483</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Santo Niño</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>14.9047</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>120.7792</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2544</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>1392</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Sapang Bayan</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>14.9196</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>120.7739</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>3140</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>1775</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Sergio Bayan</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>14.894</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>120.7909</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1727</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>1258</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Sucol</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>14.9138</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>120.7701</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1059</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>963</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>testAdd</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Active.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Active.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>xDegrees</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>yDegrees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Population</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>AffectedPop</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>WorkPop</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>MaxDistance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
@@ -491,183 +501,223 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Balite</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>14.8956</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>120.7855</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>5016</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>2144</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Balungao</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>14.9143</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>120.7622</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>5720</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>3366</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Buguion</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>14.894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>120.7985</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>3841</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>2196</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Bulusan</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>14.9076</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>120.7455</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>2603</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>1721</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="b">
@@ -675,45 +725,55 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Calizon</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>14.9125</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>120.753</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>2221</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>1387</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="b">
@@ -721,183 +781,223 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Calumpang</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>14.8845</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>120.7838</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>3517</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>2784</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Caniogan</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>14.9054</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>120.7733</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>4510</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>2869</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Corazon</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>14.9128</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>120.7686</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>2175</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>1647</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Frances</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>14.9153</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>120.7532</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>6129</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>3819</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="b">
@@ -905,45 +1005,55 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Gatbuca</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>14.9218</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>120.7685</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>6384</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>115</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>4250</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="b">
@@ -951,45 +1061,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Gugo</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>14.9014</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>120.7548</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>1960</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>1179</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="b">
@@ -997,45 +1117,55 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Iba Este</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>14.8899</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>120.7673</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>4161</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>1828</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="b">
@@ -1043,45 +1173,55 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Iba O'Este</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>14.8919</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>120.7635</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>14085</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>601</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>8095</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="b">
@@ -1089,45 +1229,55 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Longos</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>14.8748</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>120.7866</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>4265</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>2293</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="b">
@@ -1135,45 +1285,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Meysulao</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>14.9078</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>120.7397</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>4280</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>2687</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="b">
@@ -1181,45 +1341,55 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Meyto</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>14.8831</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>120.7295</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>2925</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>1975</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="b">
@@ -1227,45 +1397,55 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Palimbang</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>14.8994</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>120.7756</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>1684</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>1424</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="b">
@@ -1273,45 +1453,55 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Panducot</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>14.8761</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>120.738</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>1752</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>1713</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="b">
@@ -1319,45 +1509,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Poblacion</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>14.9157</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>120.7672</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>1785</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>1294</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="b">
@@ -1365,45 +1565,55 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Pungo</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>14.9023</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>120.7914</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>9528</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>5486</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="b">
@@ -1411,45 +1621,55 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>San Jose</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>14.8838</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>120.7395</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>5661</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>3629</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="b">
@@ -1457,45 +1677,55 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>San Marcos</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>14.8976</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>120.7797</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>2671</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>1471</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="b">
@@ -1503,45 +1733,55 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>San Miguel</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>14.917</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>120.7427</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>6005</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>3287</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="b">
@@ -1549,45 +1789,55 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Santa Lucia</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>14.8982</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>120.736</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>2460</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>1483</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="b">
@@ -1595,45 +1845,55 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Santo Niño</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>14.9047</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>120.7792</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>2544</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>1392</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="b">
@@ -1641,45 +1901,55 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Sapang Bayan</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>14.9196</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>120.7739</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>3140</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>1775</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="b">
@@ -1687,133 +1957,163 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Sergio Bayan</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>14.894</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>120.7909</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>1727</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>1258</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Sucol</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>14.9138</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>120.7701</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>1059</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>963</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="b">
         <v>0</v>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>testAdd</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>120.0</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>12.0</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>32.0</t>
         </is>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Active.3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Active.2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Active.1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>xDegrees</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>yDegrees</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Population</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>AffectedPop</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>WorkPop</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>MaxDistance</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
@@ -497,7 +502,7 @@
     </row>
     <row r="2">
       <c r="A2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -511,45 +516,50 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Balite</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>14.8956</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>120.7855</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>5016</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>2144</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="b">
@@ -557,7 +567,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -567,45 +577,50 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Balungao</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>14.9143</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>120.7622</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>5720</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>3366</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="b">
@@ -613,7 +628,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -623,45 +638,50 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Buguion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>14.894</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>120.7985</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>3841</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>2196</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="b">
@@ -669,55 +689,60 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Bulusan</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>14.9076</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>120.7455</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>2603</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>1721</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="b">
@@ -735,45 +760,50 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Calizon</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>14.9125</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>120.753</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>2221</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>1387</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="b">
@@ -791,45 +821,50 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Calumpang</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>14.8845</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>120.7838</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>3517</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>2784</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="b">
@@ -837,7 +872,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -847,45 +882,50 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Caniogan</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>14.9054</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>120.7733</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>4510</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>2869</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="b">
@@ -893,7 +933,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -903,45 +943,50 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Corazon</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>14.9128</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>120.7686</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>2175</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>1647</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="b">
@@ -954,50 +999,55 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Frances</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>14.9153</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>120.7532</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>6129</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>3819</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="b">
@@ -1015,45 +1065,50 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Gatbuca</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>14.9218</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>120.7685</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>6384</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>115</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>4250</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="b">
@@ -1071,45 +1126,50 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Gugo</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>14.9014</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>120.7548</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>1960</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>1179</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="b">
@@ -1127,45 +1187,50 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>Iba Este</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>14.8899</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>120.7673</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>4161</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>1828</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="b">
@@ -1183,45 +1248,50 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Iba O'Este</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>14.8919</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>120.7635</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>14085</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>601</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>8095</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="b">
@@ -1239,45 +1309,50 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>Longos</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>14.8748</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>120.7866</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>4265</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>2293</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="b">
@@ -1295,45 +1370,50 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Meysulao</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>14.9078</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>120.7397</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>4280</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>2687</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="b">
@@ -1351,45 +1431,50 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>Meyto</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>14.8831</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>120.7295</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>2925</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>1975</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="b">
@@ -1407,45 +1492,50 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>Palimbang</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>14.8994</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>120.7756</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>1684</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>1424</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="b">
@@ -1463,45 +1553,50 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>Panducot</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>14.8761</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>120.738</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>1752</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>1713</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="b">
@@ -1519,45 +1614,50 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>Poblacion</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>14.9157</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>120.7672</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>1785</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>1294</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="b">
@@ -1575,45 +1675,50 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Pungo</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>14.9023</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>120.7914</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>9528</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>5486</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="b">
@@ -1631,45 +1736,50 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>San Jose</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>14.8838</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>120.7395</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>5661</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>3629</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="b">
@@ -1687,45 +1797,50 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>San Marcos</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>14.8976</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>120.7797</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>2671</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>1471</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="b">
@@ -1743,45 +1858,50 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>San Miguel</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>14.917</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>120.7427</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>6005</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>3287</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="b">
@@ -1799,45 +1919,50 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>Santa Lucia</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>14.8982</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>120.736</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>2460</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>1483</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="b">
@@ -1855,45 +1980,50 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>Santo Niño</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>14.9047</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>120.7792</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>2544</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>1392</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="b">
@@ -1911,45 +2041,50 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>Sapang Bayan</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>14.9196</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>120.7739</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>3140</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>1775</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="b">
@@ -1967,45 +2102,50 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>Sergio Bayan</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>14.894</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>120.7909</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>1727</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>1258</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="b">
@@ -2013,7 +2153,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2023,45 +2163,50 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>Sucol</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>14.9138</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>120.7701</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>1059</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>963</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="b">
@@ -2077,43 +2222,48 @@
           <t>False</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>testAdd</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>120.0</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>12.0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
       <c r="L30" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>32.0</t>
         </is>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,15 +466,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>WorkPop</t>
+          <t>MaxDistance</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MaxDistance</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
@@ -486,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abangan Norte</t>
+          <t>Abangan :3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -511,15 +506,10 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6431</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="b">
@@ -527,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abangan Sur</t>
+          <t>wwwwwwwwwwwwwwwwwwwwwwwww</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -552,19 +542,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6525</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -593,19 +578,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7186</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -634,15 +614,10 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>27645</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="b">
@@ -675,15 +650,10 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8801</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>hmmm yes</t>
         </is>
@@ -720,15 +690,10 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>38463</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="b">
@@ -761,15 +726,10 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2829</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="b">
@@ -802,15 +762,10 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5343</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="b">
@@ -843,15 +798,10 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1212</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="b">
@@ -884,15 +834,10 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3918</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="b">
@@ -925,15 +870,10 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4705</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="b">
@@ -966,15 +906,10 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7475</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="b">
@@ -1007,15 +942,10 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7268</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="b">
@@ -1048,15 +978,10 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6385</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="b">
@@ -1089,15 +1014,10 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10458</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="b">
@@ -1130,15 +1050,10 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4989</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
     </row>
     <row r="3">
       <c r="A3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abangan :3</t>
+          <t>Abangan :3og</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>wwwwwwwwwwwwwwwwwwwwwwwww</t>
+          <t>3r3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -661,7 +661,7 @@
     </row>
     <row r="7">
       <c r="A7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
     </row>
     <row r="9">
       <c r="A9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,73 +477,53 @@
     </row>
     <row r="2">
       <c r="A2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abangan :3og</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>120.9342</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.7661</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>11417</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10080</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+          <t>Lawa</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120.9533</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.7535</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8310</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2000</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3r3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>120.9437</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.7653</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10595</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9750</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+          <t>Ibayssao2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>120.9533</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.7535</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8310</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2000</v>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -553,69 +533,49 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ibayo</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>120.9533</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.7535</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>8310</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+          <t>Ibayo2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>120.9533</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.7535</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8310</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2000</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lambakin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>120.9785</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.7738</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>48184</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>30000</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+          <t>Loma de Gato</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>121.0077</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.7911</v>
+      </c>
+      <c r="E5" t="n">
+        <v>71258</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2000</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
@@ -625,39 +585,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lias</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>120.9623</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.7603</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15256</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1545</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>hmmm yes</t>
-        </is>
-      </c>
+          <t>Nagbalon</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>120.941</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.7465</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3518</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4925</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="b">
@@ -665,35 +611,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Loma de Gato</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>121.0077</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.7911</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>71258</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>Patubig</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>120.9595</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.7774</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8419</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>hmmm yes</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="b">
@@ -701,69 +641,49 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nagbalon</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>120.941</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.7465</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3518</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4925</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+          <t>Poblacion I</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>120.9488</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.7559</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1419</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2000</v>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Patubig</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>120.9595</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>14.7774</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8419</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+          <t>Poblacion II</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>120.9464</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.7599</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4968</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2000</v>
       </c>
       <c r="H9" t="inlineStr"/>
     </row>
@@ -773,33 +693,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Poblacion I</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>120.9488</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.7559</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1419</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+          <t>Prenza I</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>120.9849</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.7833</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9019</v>
+      </c>
+      <c r="F10" t="n">
+        <v>350</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2000</v>
       </c>
       <c r="H10" t="inlineStr"/>
     </row>
@@ -809,33 +719,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Poblacion II</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>120.9464</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>14.7599</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4968</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>10000</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+          <t>Prenza II</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>120.9868</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.7813</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13784</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3050</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2000</v>
       </c>
       <c r="H11" t="inlineStr"/>
     </row>
@@ -845,33 +745,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Prenza I</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>120.9849</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>14.7833</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>9019</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+          <t>Santa Rosa I</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>120.9746</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.7789</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11260</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4995</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2000</v>
       </c>
       <c r="H12" t="inlineStr"/>
     </row>
@@ -881,33 +771,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Prenza II</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>120.9868</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>14.7813</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>13784</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3050</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+          <t>Santa Rosa II</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>120.9686</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14.784</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13378</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2000</v>
       </c>
       <c r="H13" t="inlineStr"/>
     </row>
@@ -917,143 +797,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Santa Rosa I</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>120.9746</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>14.7789</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>11260</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4995</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+          <t>Tabing Ilog</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>120.9488</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14.7649</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8056</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2000</v>
       </c>
       <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="b">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Santa Rosa II</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>120.9686</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>14.784</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>13378</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4500</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Saog</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>120.9556</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14.7642</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>15612</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>15000</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Tabing Ilog</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>120.9488</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>14.7649</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>8056</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5500</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lawa</t>
+          <t>Lawaf</t>
         </is>
       </c>
       <c r="C2" t="n">

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,25 +481,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lawaf</t>
+          <t>Patubigdd</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>120.9533</v>
+        <v>120.9595</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7535</v>
+        <v>14.7774</v>
       </c>
       <c r="E2" t="n">
-        <v>8310</v>
+        <v>8419</v>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
         <v>2000</v>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>hmmm yeswwwddd</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="b">
@@ -507,25 +511,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ibayssao2</t>
+          <t>Poblacion I</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>120.9533</v>
+        <v>120.9488</v>
       </c>
       <c r="D3" t="n">
-        <v>14.7535</v>
+        <v>14.7559</v>
       </c>
       <c r="E3" t="n">
-        <v>8310</v>
+        <v>1419</v>
       </c>
       <c r="F3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G3" t="n">
         <v>2000</v>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ji</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="b">
@@ -533,51 +541,59 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ibayo2</t>
+          <t>Poblacion IIc</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>120.9533</v>
+        <v>120.9464</v>
       </c>
       <c r="D4" t="n">
-        <v>14.7535</v>
+        <v>14.7599</v>
       </c>
       <c r="E4" t="n">
-        <v>8310</v>
+        <v>4968</v>
       </c>
       <c r="F4" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="n">
         <v>2000</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Loma de Gato</t>
+          <t>Prenza I</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>121.0077</v>
+        <v>120.9849</v>
       </c>
       <c r="D5" t="n">
-        <v>14.7911</v>
+        <v>14.7833</v>
       </c>
       <c r="E5" t="n">
-        <v>71258</v>
+        <v>9019</v>
       </c>
       <c r="F5" t="n">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="G5" t="n">
         <v>2000</v>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="b">
@@ -585,53 +601,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nagbalon</t>
+          <t>Prenza II</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>120.941</v>
+        <v>120.9868</v>
       </c>
       <c r="D6" t="n">
-        <v>14.7465</v>
+        <v>14.7813</v>
       </c>
       <c r="E6" t="n">
-        <v>3518</v>
+        <v>13784</v>
       </c>
       <c r="F6" t="n">
-        <v>4925</v>
+        <v>3050</v>
       </c>
       <c r="G6" t="n">
         <v>2000</v>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>hh</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Patubig</t>
+          <t>Santa Rosa I</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>120.9595</v>
+        <v>120.9746</v>
       </c>
       <c r="D7" t="n">
-        <v>14.7774</v>
+        <v>14.7789</v>
       </c>
       <c r="E7" t="n">
-        <v>8419</v>
+        <v>11260</v>
       </c>
       <c r="F7" t="n">
-        <v>23</v>
+        <v>4995</v>
       </c>
       <c r="G7" t="n">
         <v>2000</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>hmmm yes</t>
+          <t>hih</t>
         </is>
       </c>
     </row>
@@ -641,25 +661,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Poblacion I</t>
+          <t>Santa Rosa II</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>120.9488</v>
+        <v>120.9686</v>
       </c>
       <c r="D8" t="n">
-        <v>14.7559</v>
+        <v>14.784</v>
       </c>
       <c r="E8" t="n">
-        <v>1419</v>
+        <v>13378</v>
       </c>
       <c r="F8" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="G8" t="n">
         <v>2000</v>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>w3e3f</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="b">
@@ -667,155 +691,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Poblacion II</t>
+          <t>Tabing Ilog</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>120.9464</v>
+        <v>120.2</v>
       </c>
       <c r="D9" t="n">
-        <v>14.7599</v>
+        <v>14.3</v>
       </c>
       <c r="E9" t="n">
-        <v>4968</v>
+        <v>8056</v>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="G9" t="n">
         <v>2000</v>
       </c>
       <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="b">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Prenza I</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>120.9849</v>
-      </c>
-      <c r="D10" t="n">
-        <v>14.7833</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9019</v>
-      </c>
-      <c r="F10" t="n">
-        <v>350</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="b">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Prenza II</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>120.9868</v>
-      </c>
-      <c r="D11" t="n">
-        <v>14.7813</v>
-      </c>
-      <c r="E11" t="n">
-        <v>13784</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3050</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="b">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Santa Rosa I</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>120.9746</v>
-      </c>
-      <c r="D12" t="n">
-        <v>14.7789</v>
-      </c>
-      <c r="E12" t="n">
-        <v>11260</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4995</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="b">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Santa Rosa II</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>120.9686</v>
-      </c>
-      <c r="D13" t="n">
-        <v>14.784</v>
-      </c>
-      <c r="E13" t="n">
-        <v>13378</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="b">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Tabing Ilog</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>120.9488</v>
-      </c>
-      <c r="D14" t="n">
-        <v>14.7649</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8056</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5500</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,29 +481,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patubigdd</t>
+          <t>Abangan Norte</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>120.9595</v>
+        <v>120.9342</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7774</v>
+        <v>14.7661</v>
       </c>
       <c r="E2" t="n">
-        <v>8419</v>
+        <v>11417</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>10080</v>
       </c>
       <c r="G2" t="n">
         <v>2000</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>hmmm yeswwwddd</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="b">
@@ -511,29 +507,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Poblacion I</t>
+          <t>Abangan Sur</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>120.9488</v>
+        <v>120.9437</v>
       </c>
       <c r="D3" t="n">
-        <v>14.7559</v>
+        <v>14.7653</v>
       </c>
       <c r="E3" t="n">
-        <v>1419</v>
+        <v>10595</v>
       </c>
       <c r="F3" t="n">
-        <v>3000</v>
+        <v>9750</v>
       </c>
       <c r="G3" t="n">
         <v>2000</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ji</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="b">
@@ -541,29 +533,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Poblacion IIc</t>
+          <t>Ibayo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>120.9464</v>
+        <v>120.9533</v>
       </c>
       <c r="D4" t="n">
-        <v>14.7599</v>
+        <v>14.7535</v>
       </c>
       <c r="E4" t="n">
-        <v>4968</v>
+        <v>8310</v>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="n">
         <v>2000</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>we</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="b">
@@ -571,29 +559,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prenza I</t>
+          <t>Lambakin</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>120.9849</v>
+        <v>120.9785</v>
       </c>
       <c r="D5" t="n">
-        <v>14.7833</v>
+        <v>14.7738</v>
       </c>
       <c r="E5" t="n">
-        <v>9019</v>
+        <v>48184</v>
       </c>
       <c r="F5" t="n">
-        <v>350</v>
+        <v>30000</v>
       </c>
       <c r="G5" t="n">
         <v>2000</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="b">
@@ -601,27 +585,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prenza II</t>
+          <t>Lias</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>120.9868</v>
+        <v>120.9623</v>
       </c>
       <c r="D6" t="n">
-        <v>14.7813</v>
+        <v>14.7603</v>
       </c>
       <c r="E6" t="n">
-        <v>13784</v>
+        <v>15256</v>
       </c>
       <c r="F6" t="n">
-        <v>3050</v>
+        <v>1545</v>
       </c>
       <c r="G6" t="n">
         <v>2000</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>hh</t>
+          <t>hmmm yes</t>
         </is>
       </c>
     </row>
@@ -631,29 +615,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santa Rosa I</t>
+          <t>Loma de Gato</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>120.9746</v>
+        <v>121.0077</v>
       </c>
       <c r="D7" t="n">
-        <v>14.7789</v>
+        <v>14.7911</v>
       </c>
       <c r="E7" t="n">
-        <v>11260</v>
+        <v>71258</v>
       </c>
       <c r="F7" t="n">
-        <v>4995</v>
+        <v>5000</v>
       </c>
       <c r="G7" t="n">
         <v>2000</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>hih</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="b">
@@ -661,29 +641,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santa Rosa II</t>
+          <t>Nagbalon</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>120.9686</v>
+        <v>120.941</v>
       </c>
       <c r="D8" t="n">
-        <v>14.784</v>
+        <v>14.7465</v>
       </c>
       <c r="E8" t="n">
-        <v>13378</v>
+        <v>3518</v>
       </c>
       <c r="F8" t="n">
-        <v>4500</v>
+        <v>4925</v>
       </c>
       <c r="G8" t="n">
         <v>2000</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>w3e3f</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="b">
@@ -691,25 +667,299 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Patubig</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>120.9595</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.7774</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8419</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="b">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Poblacion I</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>120.9488</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.7559</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1419</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Poblacion II</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>120.9464</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.7599</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4968</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prenza I</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>120.9849</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.7833</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9019</v>
+      </c>
+      <c r="F12" t="n">
+        <v>350</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="b">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Prenza II</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>120.9868</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14.7813</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13784</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3050</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Santa Rosa I</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>120.9746</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14.7789</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11260</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4995</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Santa Rosa II</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>120.9686</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.784</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13378</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Saog</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>120.9556</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14.7642</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15612</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Tabing Ilog</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>120.2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="C17" t="n">
+        <v>120.9488</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14.7649</v>
+      </c>
+      <c r="E17" t="n">
         <v>8056</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F17" t="n">
         <v>5500</v>
       </c>
-      <c r="G9" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>we2</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>33</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,27 +477,27 @@
     </row>
     <row r="2">
       <c r="A2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abangan Norte</t>
+          <t>Balite</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>120.9342</v>
+        <v>14.8956</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7661</v>
+        <v>120.7855</v>
       </c>
       <c r="E2" t="n">
-        <v>11417</v>
+        <v>5016</v>
       </c>
       <c r="F2" t="n">
-        <v>10080</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -507,23 +507,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abangan Sur</t>
+          <t>Balungao</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>120.9437</v>
+        <v>14.9143</v>
       </c>
       <c r="D3" t="n">
-        <v>14.7653</v>
+        <v>120.7622</v>
       </c>
       <c r="E3" t="n">
-        <v>10595</v>
+        <v>5720</v>
       </c>
       <c r="F3" t="n">
-        <v>9750</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -533,23 +533,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ibayo</t>
+          <t>Buguion</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>120.9533</v>
+        <v>14.894</v>
       </c>
       <c r="D4" t="n">
-        <v>14.7535</v>
+        <v>120.7985</v>
       </c>
       <c r="E4" t="n">
-        <v>8310</v>
+        <v>3841</v>
       </c>
       <c r="F4" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -559,23 +559,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lambakin</t>
+          <t>Bulusan</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>120.9785</v>
+        <v>14.9076</v>
       </c>
       <c r="D5" t="n">
-        <v>14.7738</v>
+        <v>120.7455</v>
       </c>
       <c r="E5" t="n">
-        <v>48184</v>
+        <v>2603</v>
       </c>
       <c r="F5" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
@@ -585,29 +585,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lias</t>
+          <t>Calizon</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>120.9623</v>
+        <v>14.9125</v>
       </c>
       <c r="D6" t="n">
-        <v>14.7603</v>
+        <v>120.753</v>
       </c>
       <c r="E6" t="n">
-        <v>15256</v>
+        <v>2221</v>
       </c>
       <c r="F6" t="n">
-        <v>1545</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>hmmm yes</t>
-        </is>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="b">
@@ -615,23 +611,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Loma de Gato</t>
+          <t>Caniogan</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>121.0077</v>
+        <v>14.9054</v>
       </c>
       <c r="D7" t="n">
-        <v>14.7911</v>
+        <v>120.7733</v>
       </c>
       <c r="E7" t="n">
-        <v>71258</v>
+        <v>4510</v>
       </c>
       <c r="F7" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -641,23 +637,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nagbalon</t>
+          <t>Corazon</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>120.941</v>
+        <v>14.9128</v>
       </c>
       <c r="D8" t="n">
-        <v>14.7465</v>
+        <v>120.7686</v>
       </c>
       <c r="E8" t="n">
-        <v>3518</v>
+        <v>2175</v>
       </c>
       <c r="F8" t="n">
-        <v>4925</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
@@ -667,23 +663,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Patubig</t>
+          <t>Frances</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>120.9595</v>
+        <v>14.9153</v>
       </c>
       <c r="D9" t="n">
-        <v>14.7774</v>
+        <v>120.7532</v>
       </c>
       <c r="E9" t="n">
-        <v>8419</v>
+        <v>6129</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="inlineStr"/>
     </row>
@@ -693,23 +689,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Poblacion I</t>
+          <t>Gatbuca</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>120.9488</v>
+        <v>14.9218</v>
       </c>
       <c r="D10" t="n">
-        <v>14.7559</v>
+        <v>120.7685</v>
       </c>
       <c r="E10" t="n">
-        <v>1419</v>
+        <v>6384</v>
       </c>
       <c r="F10" t="n">
-        <v>3000</v>
+        <v>115</v>
       </c>
       <c r="G10" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="inlineStr"/>
     </row>
@@ -719,23 +715,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Poblacion II</t>
+          <t>Gugo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>120.9464</v>
+        <v>14.9014</v>
       </c>
       <c r="D11" t="n">
-        <v>14.7599</v>
+        <v>120.7548</v>
       </c>
       <c r="E11" t="n">
-        <v>4968</v>
+        <v>1960</v>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>57</v>
       </c>
       <c r="G11" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="inlineStr"/>
     </row>
@@ -745,23 +741,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Prenza I</t>
+          <t>Iba Este</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>120.9849</v>
+        <v>14.8899</v>
       </c>
       <c r="D12" t="n">
-        <v>14.7833</v>
+        <v>120.7673</v>
       </c>
       <c r="E12" t="n">
-        <v>9019</v>
+        <v>4161</v>
       </c>
       <c r="F12" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="inlineStr"/>
     </row>
@@ -771,23 +767,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Prenza II</t>
+          <t>Iba O'Este</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>120.9868</v>
+        <v>14.8919</v>
       </c>
       <c r="D13" t="n">
-        <v>14.7813</v>
+        <v>120.7635</v>
       </c>
       <c r="E13" t="n">
-        <v>13784</v>
+        <v>14085</v>
       </c>
       <c r="F13" t="n">
-        <v>3050</v>
+        <v>601</v>
       </c>
       <c r="G13" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="inlineStr"/>
     </row>
@@ -797,23 +793,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Santa Rosa I</t>
+          <t>Meysulao</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>120.9746</v>
+        <v>14.9078</v>
       </c>
       <c r="D14" t="n">
-        <v>14.7789</v>
+        <v>120.7397</v>
       </c>
       <c r="E14" t="n">
-        <v>11260</v>
+        <v>4280</v>
       </c>
       <c r="F14" t="n">
-        <v>4995</v>
+        <v>56</v>
       </c>
       <c r="G14" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="inlineStr"/>
     </row>
@@ -823,23 +819,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Santa Rosa II</t>
+          <t>Meyto</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>120.9686</v>
+        <v>14.8831</v>
       </c>
       <c r="D15" t="n">
-        <v>14.784</v>
+        <v>120.7295</v>
       </c>
       <c r="E15" t="n">
-        <v>13378</v>
+        <v>2925</v>
       </c>
       <c r="F15" t="n">
-        <v>4500</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="inlineStr"/>
     </row>
@@ -849,23 +845,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Saog</t>
+          <t>Palimbang</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>120.9556</v>
+        <v>14.8994</v>
       </c>
       <c r="D16" t="n">
-        <v>14.7642</v>
+        <v>120.7756</v>
       </c>
       <c r="E16" t="n">
-        <v>15612</v>
+        <v>1684</v>
       </c>
       <c r="F16" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="inlineStr"/>
     </row>
@@ -875,55 +871,51 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tabing Ilog</t>
+          <t>Panducot</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>120.9488</v>
+        <v>14.8761</v>
       </c>
       <c r="D17" t="n">
-        <v>14.7649</v>
+        <v>120.738</v>
       </c>
       <c r="E17" t="n">
-        <v>8056</v>
+        <v>1752</v>
       </c>
       <c r="F17" t="n">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>we2</t>
+          <t>Pio Cruzcosa</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>14.8881</v>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>120.7855</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>4663</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>w</t>
-        </is>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="b">
@@ -931,35 +923,259 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+          <t>Poblacion</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>14.9157</v>
+      </c>
+      <c r="D19" t="n">
+        <v>120.7672</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1785</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1000</v>
       </c>
       <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pungo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>14.9023</v>
+      </c>
+      <c r="D20" t="n">
+        <v>120.7914</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9528</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>San Jose</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>14.8838</v>
+      </c>
+      <c r="D21" t="n">
+        <v>120.7395</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5661</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>San Marcos</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>14.8976</v>
+      </c>
+      <c r="D22" t="n">
+        <v>120.7797</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2671</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>14.917</v>
+      </c>
+      <c r="D23" t="n">
+        <v>120.7427</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6005</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Santa Lucia</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>14.8982</v>
+      </c>
+      <c r="D24" t="n">
+        <v>120.736</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2460</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Santo Niño</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>14.9047</v>
+      </c>
+      <c r="D25" t="n">
+        <v>120.7792</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2544</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sapang Bayan</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>14.9196</v>
+      </c>
+      <c r="D26" t="n">
+        <v>120.7739</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3140</v>
+      </c>
+      <c r="F26" t="n">
+        <v>65</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sergio Bayan</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>14.894</v>
+      </c>
+      <c r="D27" t="n">
+        <v>120.7909</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1727</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sucol</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>14.9138</v>
+      </c>
+      <c r="D28" t="n">
+        <v>120.7701</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1059</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -484,254 +484,354 @@
           <t>Balite</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>14.8956</v>
-      </c>
-      <c r="D2" t="n">
-        <v>120.7855</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5016</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1000</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14.8956</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120.7855</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Balungao</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>14.9143</v>
-      </c>
-      <c r="D3" t="n">
-        <v>120.7622</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5720</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1000</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14.9143</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>120.7622</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Buguion</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>14.894</v>
-      </c>
-      <c r="D4" t="n">
-        <v>120.7985</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3841</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1000</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14.894</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.7985</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Bulusan</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>14.9076</v>
-      </c>
-      <c r="D5" t="n">
-        <v>120.7455</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2603</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1000</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14.9076</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>120.7455</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2603</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Calizon</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>14.9125</v>
-      </c>
-      <c r="D6" t="n">
-        <v>120.753</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2221</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1000</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14.9125</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>120.753</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2221</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Caniogan</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>14.9054</v>
-      </c>
-      <c r="D7" t="n">
-        <v>120.7733</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4510</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1000</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14.9054</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>120.7733</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4510</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Corazon</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>14.9128</v>
-      </c>
-      <c r="D8" t="n">
-        <v>120.7686</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2175</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1000</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14.9128</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>120.7686</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2175</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Frances</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>14.9153</v>
-      </c>
-      <c r="D9" t="n">
-        <v>120.7532</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6129</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1000</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14.9153</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>120.7532</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6129</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Gatbuca</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>14.9218</v>
-      </c>
-      <c r="D10" t="n">
-        <v>120.7685</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6384</v>
-      </c>
-      <c r="F10" t="n">
-        <v>115</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1000</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14.9218</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>120.7685</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>6384</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Gugo</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>14.9014</v>
-      </c>
-      <c r="D11" t="n">
-        <v>120.7548</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1960</v>
-      </c>
-      <c r="F11" t="n">
-        <v>57</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1000</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14.9014</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>120.7548</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H11" t="inlineStr"/>
     </row>
@@ -744,20 +844,30 @@
           <t>Iba Este</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>14.8899</v>
-      </c>
-      <c r="D12" t="n">
-        <v>120.7673</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4161</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1000</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14.8899</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>120.7673</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H12" t="inlineStr"/>
     </row>
@@ -770,20 +880,30 @@
           <t>Iba O'Este</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>14.8919</v>
-      </c>
-      <c r="D13" t="n">
-        <v>120.7635</v>
-      </c>
-      <c r="E13" t="n">
-        <v>14085</v>
-      </c>
-      <c r="F13" t="n">
-        <v>601</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1000</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14.8919</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>120.7635</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14085</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H13" t="inlineStr"/>
     </row>
@@ -796,20 +916,30 @@
           <t>Meysulao</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>14.9078</v>
-      </c>
-      <c r="D14" t="n">
-        <v>120.7397</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4280</v>
-      </c>
-      <c r="F14" t="n">
-        <v>56</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1000</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14.9078</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>120.7397</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4280</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H14" t="inlineStr"/>
     </row>
@@ -822,20 +952,30 @@
           <t>Meyto</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>14.8831</v>
-      </c>
-      <c r="D15" t="n">
-        <v>120.7295</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2925</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1000</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14.8831</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>120.7295</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2925</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H15" t="inlineStr"/>
     </row>
@@ -848,20 +988,30 @@
           <t>Palimbang</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>14.8994</v>
-      </c>
-      <c r="D16" t="n">
-        <v>120.7756</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1684</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1000</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14.8994</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>120.7756</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1684</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H16" t="inlineStr"/>
     </row>
@@ -874,20 +1024,30 @@
           <t>Panducot</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>14.8761</v>
-      </c>
-      <c r="D17" t="n">
-        <v>120.738</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1752</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1000</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14.8761</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>120.738</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1752</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H17" t="inlineStr"/>
     </row>
@@ -900,20 +1060,30 @@
           <t>Pio Cruzcosa</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>14.8881</v>
-      </c>
-      <c r="D18" t="n">
-        <v>120.7855</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4663</v>
-      </c>
-      <c r="F18" t="n">
-        <v>92</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1000</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14.8881</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>120.7855</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H18" t="inlineStr"/>
     </row>
@@ -926,20 +1096,30 @@
           <t>Poblacion</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>14.9157</v>
-      </c>
-      <c r="D19" t="n">
-        <v>120.7672</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1785</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1000</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14.9157</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>120.7672</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1785</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H19" t="inlineStr"/>
     </row>
@@ -952,46 +1132,66 @@
           <t>Pungo</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>14.9023</v>
-      </c>
-      <c r="D20" t="n">
-        <v>120.7914</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9528</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1000</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14.9023</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>120.7914</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>9528</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>San Jose</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>14.8838</v>
-      </c>
-      <c r="D21" t="n">
-        <v>120.7395</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5661</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1000</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14.8838</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>120.7395</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5661</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H21" t="inlineStr"/>
     </row>
@@ -1004,72 +1204,102 @@
           <t>San Marcos</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>14.8976</v>
-      </c>
-      <c r="D22" t="n">
-        <v>120.7797</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2671</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1000</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14.8976</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>120.7797</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2671</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>San Miguel</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>14.917</v>
-      </c>
-      <c r="D23" t="n">
-        <v>120.7427</v>
-      </c>
-      <c r="E23" t="n">
-        <v>6005</v>
-      </c>
-      <c r="F23" t="n">
-        <v>17</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1000</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14.917</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>120.7427</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>6005</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Santa Lucia</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>14.8982</v>
-      </c>
-      <c r="D24" t="n">
-        <v>120.736</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2460</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1000</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14.8982</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>120.736</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H24" t="inlineStr"/>
     </row>
@@ -1082,20 +1312,30 @@
           <t>Santo Niño</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>14.9047</v>
-      </c>
-      <c r="D25" t="n">
-        <v>120.7792</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1000</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14.9047</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>120.7792</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2544</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H25" t="inlineStr"/>
     </row>
@@ -1108,20 +1348,30 @@
           <t>Sapang Bayan</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>14.9196</v>
-      </c>
-      <c r="D26" t="n">
-        <v>120.7739</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3140</v>
-      </c>
-      <c r="F26" t="n">
-        <v>65</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1000</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14.9196</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>120.7739</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H26" t="inlineStr"/>
     </row>
@@ -1134,20 +1384,30 @@
           <t>Sergio Bayan</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>14.894</v>
-      </c>
-      <c r="D27" t="n">
-        <v>120.7909</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1727</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1000</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>14.894</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>120.7909</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1727</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H27" t="inlineStr"/>
     </row>
@@ -1160,20 +1420,30 @@
           <t>Sucol</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>14.9138</v>
-      </c>
-      <c r="D28" t="n">
-        <v>120.7701</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1059</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1000</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>14.9138</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>120.7701</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H28" t="inlineStr"/>
     </row>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,22 +481,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Balite</t>
+          <t>dicsa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14.8956</t>
+          <t>14.894</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>120.7855</t>
+          <t>120.7985</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5016</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -517,22 +517,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Balungao</t>
+          <t>Bulusan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14.9143</t>
+          <t>14.9076</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>120.7622</t>
+          <t>120.7455</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -553,22 +553,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Buguion</t>
+          <t>Calizon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14.894</t>
+          <t>14.9125</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>120.7985</t>
+          <t>120.753</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3841</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -589,22 +589,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bulusan</t>
+          <t>Caniogan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14.9076</t>
+          <t>14.9054</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>120.7455</t>
+          <t>120.7733</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -625,22 +625,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calizon</t>
+          <t>Corazon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14.9125</t>
+          <t>14.9128</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>120.753</t>
+          <t>120.7686</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2221</t>
+          <t>2175</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -661,27 +661,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Caniogan</t>
+          <t>Frances</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14.9054</t>
+          <t>14.9153</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>120.7733</t>
+          <t>120.7532</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>6129</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -697,27 +697,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Corazon</t>
+          <t>Gatbuca</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14.9128</t>
+          <t>14.9218</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>120.7686</t>
+          <t>120.7685</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2175</t>
+          <t>6384</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -733,27 +733,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Frances</t>
+          <t>Gugo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14.9153</t>
+          <t>14.9014</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>120.7532</t>
+          <t>120.7548</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6129</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -769,27 +769,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gatbuca</t>
+          <t>Iba Este</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14.9218</t>
+          <t>14.8899</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>120.7685</t>
+          <t>120.7673</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6384</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -805,27 +805,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gugo</t>
+          <t>Iba O'Este</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14.9014</t>
+          <t>14.8919</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>120.7548</t>
+          <t>120.7635</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>14085</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>601</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -837,31 +837,31 @@
     </row>
     <row r="12">
       <c r="A12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Iba Este</t>
+          <t>Meysulao</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14.8899</t>
+          <t>14.9078</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>120.7673</t>
+          <t>120.7397</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4161</t>
+          <t>4280</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -877,27 +877,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Iba O'Este</t>
+          <t>Meyto</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14.8919</t>
+          <t>14.8831</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>120.7635</t>
+          <t>120.7295</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14085</t>
+          <t>2925</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -913,27 +913,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Meysulao</t>
+          <t>Palimbang</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14.9078</t>
+          <t>14.8994</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>120.7397</t>
+          <t>120.7756</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4280</t>
+          <t>1684</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -949,27 +949,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Meyto</t>
+          <t>Panducot</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14.8831</t>
+          <t>14.8761</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>120.7295</t>
+          <t>120.738</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>1752</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -985,27 +985,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Palimbang</t>
+          <t>Pio Cruzcosa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14.8994</t>
+          <t>14.8881</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>120.7756</t>
+          <t>120.7855</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1684</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>92</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1021,22 +1021,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Panducot</t>
+          <t>Poblacion</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14.8761</t>
+          <t>14.9157</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>120.738</t>
+          <t>120.7672</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1752</t>
+          <t>1785</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1053,31 +1053,31 @@
     </row>
     <row r="18">
       <c r="A18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pio Cruzcosa</t>
+          <t>Pungo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14.8881</t>
+          <t>14.9023</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>120.7855</t>
+          <t>120.7914</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4663</t>
+          <t>9528</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1089,26 +1089,26 @@
     </row>
     <row r="19">
       <c r="A19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Poblacion</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14.9157</t>
+          <t>14.8838</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>120.7672</t>
+          <t>120.7395</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1785</t>
+          <t>5661</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1129,22 +1129,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pungo</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14.9023</t>
+          <t>14.8976</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>120.7914</t>
+          <t>120.7797</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>9528</t>
+          <t>2671</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1165,27 +1165,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>San Miguel</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14.8838</t>
+          <t>14.917</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>120.7395</t>
+          <t>120.7427</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5661</t>
+          <t>6005</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1197,26 +1197,26 @@
     </row>
     <row r="22">
       <c r="A22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Santa Lucia</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14.8976</t>
+          <t>14.8982</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>120.7797</t>
+          <t>120.736</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2671</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1233,31 +1233,31 @@
     </row>
     <row r="23">
       <c r="A23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>San Miguel</t>
+          <t>Santo Niño</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14.917</t>
+          <t>14.9047</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>120.7427</t>
+          <t>120.7792</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6005</t>
+          <t>2544</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1269,31 +1269,31 @@
     </row>
     <row r="24">
       <c r="A24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Santa Lucia</t>
+          <t>Sapang Bayan</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14.8982</t>
+          <t>14.9196</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>120.736</t>
+          <t>120.7739</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>3140</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Santo Niño</t>
+          <t>Sergio Bayan</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14.9047</t>
+          <t>14.894</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>120.7792</t>
+          <t>120.7909</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2544</t>
+          <t>1727</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1345,27 +1345,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sapang Bayan</t>
+          <t>Sucol</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14.9196</t>
+          <t>14.9138</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>120.7739</t>
+          <t>120.7701</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1374,78 +1374,6 @@
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Sergio Bayan</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>14.894</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>120.7909</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>1727</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="b">
-        <v>1</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Sucol</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>14.9138</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>120.7701</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1059</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,32 +484,52 @@
           <t>Pio Cruzcosa</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>14.8881</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>120.7855</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C2" t="n">
+        <v>14.8881</v>
+      </c>
+      <c r="D2" t="n">
+        <v>120.7855</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4663</v>
+      </c>
+      <c r="F2" t="n">
+        <v>92</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1000</v>
       </c>
       <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>bry</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>120.78</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -484,20 +484,30 @@
           <t>Pio Cruzcosa</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>14.8881</v>
-      </c>
-      <c r="D2" t="n">
-        <v>120.7855</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4663</v>
-      </c>
-      <c r="F2" t="n">
-        <v>92</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1000</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14.8881</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120.7855</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -510,20 +520,30 @@
           <t>bry</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>120.78</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14.9</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>120.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pio Cruzcosa</t>
+          <t>Balite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14.8881</t>
+          <t>14.8956</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4663</t>
+          <t>5016</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>45454544</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -517,39 +517,1007 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bry</t>
+          <t>Balungao</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>14.9143</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>120.78</t>
+          <t>120.7622</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>52000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Buguion</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14.894</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.7985</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bulusan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14.9076</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>120.7455</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2603</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calizon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14.9125</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>120.753</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2221</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calumpang</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14.8845</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>120.7838</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3517</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caniogan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14.9054</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>120.7733</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4510</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Corazon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14.9128</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>120.7686</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2175</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Frances</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14.9153</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>120.7532</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>6129</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gatbuca</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14.9218</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>120.7685</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6384</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gugo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14.9014</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>120.7548</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Iba Este</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14.8899</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>120.7673</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Iba O'Este</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14.8919</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>120.7635</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14085</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Longos</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14.8748</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>120.7866</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Meysulao</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14.9078</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>120.7397</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4280</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Meyto</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14.8831</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>120.7295</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2925</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Palimbang</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14.8994</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>120.7756</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1684</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Panducot</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14.8761</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>120.738</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1752</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pio Cruzcosa</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14.8881</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>120.7855</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Poblacion</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14.9157</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>120.7672</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1785</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pungo</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14.9023</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>120.7914</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>9528</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>San Jose</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14.8838</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>120.7395</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5661</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>San Marcos</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14.8976</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>120.7797</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2671</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14.917</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>120.7427</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>6005</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Santa Lucia</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14.8982</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>120.736</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Santo Niño</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>14.9047</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>120.7792</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2544</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sapang Bayan</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>14.9196</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>120.7739</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sergio Bayan</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>14.894</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>120.7909</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1727</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sucol</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14.9138</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>120.7701</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -484,30 +484,20 @@
           <t>Balite</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>14.8956</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>120.7855</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5016</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>45454544</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C2" t="n">
+        <v>14.8956</v>
+      </c>
+      <c r="D2" t="n">
+        <v>120.7855</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5016</v>
+      </c>
+      <c r="F2" t="n">
+        <v>45454544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1000</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -520,30 +510,20 @@
           <t>Balungao</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>14.9143</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>120.7622</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5720</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>52000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C3" t="n">
+        <v>14.9143</v>
+      </c>
+      <c r="D3" t="n">
+        <v>120.7622</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5720</v>
+      </c>
+      <c r="F3" t="n">
+        <v>52000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -556,30 +536,20 @@
           <t>Buguion</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>14.894</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>120.7985</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3841</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C4" t="n">
+        <v>14.894</v>
+      </c>
+      <c r="D4" t="n">
+        <v>120.7985</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3841</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -592,66 +562,46 @@
           <t>Bulusan</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>14.9076</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>120.7455</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2603</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C5" t="n">
+        <v>14.9076</v>
+      </c>
+      <c r="D5" t="n">
+        <v>120.7455</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2603</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Calizon</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>14.9125</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>120.753</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2221</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C6" t="n">
+        <v>14.9125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>120.753</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2221</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1000</v>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
@@ -664,30 +614,20 @@
           <t>Calumpang</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>14.8845</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>120.7838</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3517</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C7" t="n">
+        <v>14.8845</v>
+      </c>
+      <c r="D7" t="n">
+        <v>120.7838</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3517</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1000</v>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -700,30 +640,20 @@
           <t>Caniogan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>14.9054</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>120.7733</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4510</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C8" t="n">
+        <v>14.9054</v>
+      </c>
+      <c r="D8" t="n">
+        <v>120.7733</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4510</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1000</v>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
@@ -736,30 +666,20 @@
           <t>Corazon</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>14.9128</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>120.7686</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2175</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C9" t="n">
+        <v>14.9128</v>
+      </c>
+      <c r="D9" t="n">
+        <v>120.7686</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2175</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1000</v>
       </c>
       <c r="H9" t="inlineStr"/>
     </row>
@@ -772,30 +692,20 @@
           <t>Frances</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>14.9153</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>120.7532</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>6129</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C10" t="n">
+        <v>14.9153</v>
+      </c>
+      <c r="D10" t="n">
+        <v>120.7532</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6129</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1000</v>
       </c>
       <c r="H10" t="inlineStr"/>
     </row>
@@ -808,30 +718,20 @@
           <t>Gatbuca</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>14.9218</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>120.7685</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6384</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C11" t="n">
+        <v>14.9218</v>
+      </c>
+      <c r="D11" t="n">
+        <v>120.7685</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6384</v>
+      </c>
+      <c r="F11" t="n">
+        <v>115</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1000</v>
       </c>
       <c r="H11" t="inlineStr"/>
     </row>
@@ -844,30 +744,20 @@
           <t>Gugo</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>14.9014</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>120.7548</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C12" t="n">
+        <v>14.9014</v>
+      </c>
+      <c r="D12" t="n">
+        <v>120.7548</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1960</v>
+      </c>
+      <c r="F12" t="n">
+        <v>57</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
       </c>
       <c r="H12" t="inlineStr"/>
     </row>
@@ -880,30 +770,20 @@
           <t>Iba Este</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>14.8899</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>120.7673</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4161</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C13" t="n">
+        <v>14.8899</v>
+      </c>
+      <c r="D13" t="n">
+        <v>120.7673</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4161</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1000</v>
       </c>
       <c r="H13" t="inlineStr"/>
     </row>
@@ -916,30 +796,20 @@
           <t>Iba O'Este</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>14.8919</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>120.7635</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>14085</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>601</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C14" t="n">
+        <v>14.8919</v>
+      </c>
+      <c r="D14" t="n">
+        <v>120.7635</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14085</v>
+      </c>
+      <c r="F14" t="n">
+        <v>601</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
       </c>
       <c r="H14" t="inlineStr"/>
     </row>
@@ -952,30 +822,20 @@
           <t>Longos</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>14.8748</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>120.7866</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4265</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C15" t="n">
+        <v>14.8748</v>
+      </c>
+      <c r="D15" t="n">
+        <v>120.7866</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4265</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
       </c>
       <c r="H15" t="inlineStr"/>
     </row>
@@ -988,30 +848,20 @@
           <t>Meysulao</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>14.9078</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>120.7397</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4280</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C16" t="n">
+        <v>14.9078</v>
+      </c>
+      <c r="D16" t="n">
+        <v>120.7397</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4280</v>
+      </c>
+      <c r="F16" t="n">
+        <v>56</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1000</v>
       </c>
       <c r="H16" t="inlineStr"/>
     </row>
@@ -1024,30 +874,20 @@
           <t>Meyto</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>14.8831</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>120.7295</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2925</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C17" t="n">
+        <v>14.8831</v>
+      </c>
+      <c r="D17" t="n">
+        <v>120.7295</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2925</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
       </c>
       <c r="H17" t="inlineStr"/>
     </row>
@@ -1060,30 +900,20 @@
           <t>Palimbang</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>14.8994</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>120.7756</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1684</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C18" t="n">
+        <v>14.8994</v>
+      </c>
+      <c r="D18" t="n">
+        <v>120.7756</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1684</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1000</v>
       </c>
       <c r="H18" t="inlineStr"/>
     </row>
@@ -1096,30 +926,20 @@
           <t>Panducot</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>14.8761</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>120.738</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1752</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C19" t="n">
+        <v>14.8761</v>
+      </c>
+      <c r="D19" t="n">
+        <v>120.738</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1000</v>
       </c>
       <c r="H19" t="inlineStr"/>
     </row>
@@ -1132,30 +952,20 @@
           <t>Pio Cruzcosa</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>14.8881</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>120.7855</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C20" t="n">
+        <v>14.8881</v>
+      </c>
+      <c r="D20" t="n">
+        <v>120.7855</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4663</v>
+      </c>
+      <c r="F20" t="n">
+        <v>92</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1000</v>
       </c>
       <c r="H20" t="inlineStr"/>
     </row>
@@ -1168,30 +978,20 @@
           <t>Poblacion</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>14.9157</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>120.7672</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1785</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C21" t="n">
+        <v>14.9157</v>
+      </c>
+      <c r="D21" t="n">
+        <v>120.7672</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1785</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1000</v>
       </c>
       <c r="H21" t="inlineStr"/>
     </row>
@@ -1204,30 +1004,20 @@
           <t>Pungo</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>14.9023</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>120.7914</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>9528</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C22" t="n">
+        <v>14.9023</v>
+      </c>
+      <c r="D22" t="n">
+        <v>120.7914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9528</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1000</v>
       </c>
       <c r="H22" t="inlineStr"/>
     </row>
@@ -1240,30 +1030,20 @@
           <t>San Jose</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>14.8838</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>120.7395</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>5661</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C23" t="n">
+        <v>14.8838</v>
+      </c>
+      <c r="D23" t="n">
+        <v>120.7395</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5661</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1000</v>
       </c>
       <c r="H23" t="inlineStr"/>
     </row>
@@ -1276,30 +1056,20 @@
           <t>San Marcos</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>14.8976</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>120.7797</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2671</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C24" t="n">
+        <v>14.8976</v>
+      </c>
+      <c r="D24" t="n">
+        <v>120.7797</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2671</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1000</v>
       </c>
       <c r="H24" t="inlineStr"/>
     </row>
@@ -1312,30 +1082,20 @@
           <t>San Miguel</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>14.917</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>120.7427</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>6005</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C25" t="n">
+        <v>14.917</v>
+      </c>
+      <c r="D25" t="n">
+        <v>120.7427</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6005</v>
+      </c>
+      <c r="F25" t="n">
+        <v>17</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1000</v>
       </c>
       <c r="H25" t="inlineStr"/>
     </row>
@@ -1348,30 +1108,20 @@
           <t>Santa Lucia</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>14.8982</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>120.736</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2460</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C26" t="n">
+        <v>14.8982</v>
+      </c>
+      <c r="D26" t="n">
+        <v>120.736</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2460</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1000</v>
       </c>
       <c r="H26" t="inlineStr"/>
     </row>
@@ -1384,30 +1134,20 @@
           <t>Santo Niño</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>14.9047</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>120.7792</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2544</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C27" t="n">
+        <v>14.9047</v>
+      </c>
+      <c r="D27" t="n">
+        <v>120.7792</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2544</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1000</v>
       </c>
       <c r="H27" t="inlineStr"/>
     </row>
@@ -1420,30 +1160,20 @@
           <t>Sapang Bayan</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>14.9196</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>120.7739</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3140</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C28" t="n">
+        <v>14.9196</v>
+      </c>
+      <c r="D28" t="n">
+        <v>120.7739</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3140</v>
+      </c>
+      <c r="F28" t="n">
+        <v>65</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1000</v>
       </c>
       <c r="H28" t="inlineStr"/>
     </row>
@@ -1456,30 +1186,20 @@
           <t>Sergio Bayan</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>14.894</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>120.7909</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1727</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C29" t="n">
+        <v>14.894</v>
+      </c>
+      <c r="D29" t="n">
+        <v>120.7909</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1727</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1000</v>
       </c>
       <c r="H29" t="inlineStr"/>
     </row>
@@ -1492,30 +1212,20 @@
           <t>Sucol</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>14.9138</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>120.7701</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1059</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C30" t="n">
+        <v>14.9138</v>
+      </c>
+      <c r="D30" t="n">
+        <v>120.7701</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1059</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1000</v>
       </c>
       <c r="H30" t="inlineStr"/>
     </row>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -484,20 +484,30 @@
           <t>Balite</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>14.8956</v>
-      </c>
-      <c r="D2" t="n">
-        <v>120.7855</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5016</v>
-      </c>
-      <c r="F2" t="n">
-        <v>45454544</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1000</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14.8956</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120.7855</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -510,20 +520,30 @@
           <t>Balungao</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>14.9143</v>
-      </c>
-      <c r="D3" t="n">
-        <v>120.7622</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5720</v>
-      </c>
-      <c r="F3" t="n">
-        <v>52000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1000</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14.9143</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>120.7622</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -536,20 +556,30 @@
           <t>Buguion</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>14.894</v>
-      </c>
-      <c r="D4" t="n">
-        <v>120.7985</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3841</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1000</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14.894</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.7985</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -562,20 +592,30 @@
           <t>Bulusan</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>14.9076</v>
-      </c>
-      <c r="D5" t="n">
-        <v>120.7455</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2603</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1000</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14.9076</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>120.7455</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2603</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
@@ -588,20 +628,30 @@
           <t>Calizon</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>14.9125</v>
-      </c>
-      <c r="D6" t="n">
-        <v>120.753</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2221</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1000</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14.9125</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>120.753</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2221</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
@@ -614,20 +664,30 @@
           <t>Calumpang</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>14.8845</v>
-      </c>
-      <c r="D7" t="n">
-        <v>120.7838</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3517</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1000</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14.8845</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>120.7838</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3517</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -640,20 +700,30 @@
           <t>Caniogan</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>14.9054</v>
-      </c>
-      <c r="D8" t="n">
-        <v>120.7733</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4510</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1000</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14.9054</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>120.7733</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4510</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
@@ -666,20 +736,30 @@
           <t>Corazon</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>14.9128</v>
-      </c>
-      <c r="D9" t="n">
-        <v>120.7686</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2175</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1000</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14.9128</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>120.7686</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2175</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr"/>
     </row>
@@ -692,20 +772,30 @@
           <t>Frances</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>14.9153</v>
-      </c>
-      <c r="D10" t="n">
-        <v>120.7532</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6129</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1000</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14.9153</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>120.7532</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>6129</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H10" t="inlineStr"/>
     </row>
@@ -718,20 +808,30 @@
           <t>Gatbuca</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>14.9218</v>
-      </c>
-      <c r="D11" t="n">
-        <v>120.7685</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6384</v>
-      </c>
-      <c r="F11" t="n">
-        <v>115</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1000</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14.9218</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>120.7685</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6384</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H11" t="inlineStr"/>
     </row>
@@ -744,20 +844,30 @@
           <t>Gugo</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>14.9014</v>
-      </c>
-      <c r="D12" t="n">
-        <v>120.7548</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1960</v>
-      </c>
-      <c r="F12" t="n">
-        <v>57</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1000</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14.9014</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>120.7548</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H12" t="inlineStr"/>
     </row>
@@ -770,20 +880,30 @@
           <t>Iba Este</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>14.8899</v>
-      </c>
-      <c r="D13" t="n">
-        <v>120.7673</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4161</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1000</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14.8899</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>120.7673</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H13" t="inlineStr"/>
     </row>
@@ -796,20 +916,30 @@
           <t>Iba O'Este</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>14.8919</v>
-      </c>
-      <c r="D14" t="n">
-        <v>120.7635</v>
-      </c>
-      <c r="E14" t="n">
-        <v>14085</v>
-      </c>
-      <c r="F14" t="n">
-        <v>601</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1000</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14.8919</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>120.7635</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14085</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H14" t="inlineStr"/>
     </row>
@@ -822,20 +952,30 @@
           <t>Longos</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>14.8748</v>
-      </c>
-      <c r="D15" t="n">
-        <v>120.7866</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4265</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1000</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14.8748</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>120.7866</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H15" t="inlineStr"/>
     </row>
@@ -848,20 +988,30 @@
           <t>Meysulao</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>14.9078</v>
-      </c>
-      <c r="D16" t="n">
-        <v>120.7397</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4280</v>
-      </c>
-      <c r="F16" t="n">
-        <v>56</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1000</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14.9078</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>120.7397</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4280</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H16" t="inlineStr"/>
     </row>
@@ -874,20 +1024,30 @@
           <t>Meyto</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>14.8831</v>
-      </c>
-      <c r="D17" t="n">
-        <v>120.7295</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2925</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1000</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14.8831</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>120.7295</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2925</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H17" t="inlineStr"/>
     </row>
@@ -900,20 +1060,30 @@
           <t>Palimbang</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>14.8994</v>
-      </c>
-      <c r="D18" t="n">
-        <v>120.7756</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1684</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1000</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14.8994</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>120.7756</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1684</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H18" t="inlineStr"/>
     </row>
@@ -926,20 +1096,30 @@
           <t>Panducot</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>14.8761</v>
-      </c>
-      <c r="D19" t="n">
-        <v>120.738</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1752</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1000</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14.8761</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>120.738</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1752</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H19" t="inlineStr"/>
     </row>
@@ -952,20 +1132,30 @@
           <t>Pio Cruzcosa</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>14.8881</v>
-      </c>
-      <c r="D20" t="n">
-        <v>120.7855</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4663</v>
-      </c>
-      <c r="F20" t="n">
-        <v>92</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1000</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14.8881</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>120.7855</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H20" t="inlineStr"/>
     </row>
@@ -978,20 +1168,30 @@
           <t>Poblacion</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>14.9157</v>
-      </c>
-      <c r="D21" t="n">
-        <v>120.7672</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1785</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1000</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14.9157</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>120.7672</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1785</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H21" t="inlineStr"/>
     </row>
@@ -1004,20 +1204,30 @@
           <t>Pungo</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>14.9023</v>
-      </c>
-      <c r="D22" t="n">
-        <v>120.7914</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9528</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1000</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14.9023</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>120.7914</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>9528</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H22" t="inlineStr"/>
     </row>
@@ -1030,20 +1240,30 @@
           <t>San Jose</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>14.8838</v>
-      </c>
-      <c r="D23" t="n">
-        <v>120.7395</v>
-      </c>
-      <c r="E23" t="n">
-        <v>5661</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1000</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14.8838</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>120.7395</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5661</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H23" t="inlineStr"/>
     </row>
@@ -1056,20 +1276,30 @@
           <t>San Marcos</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>14.8976</v>
-      </c>
-      <c r="D24" t="n">
-        <v>120.7797</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2671</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1000</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14.8976</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>120.7797</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2671</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H24" t="inlineStr"/>
     </row>
@@ -1082,20 +1312,30 @@
           <t>San Miguel</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>14.917</v>
-      </c>
-      <c r="D25" t="n">
-        <v>120.7427</v>
-      </c>
-      <c r="E25" t="n">
-        <v>6005</v>
-      </c>
-      <c r="F25" t="n">
-        <v>17</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1000</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14.917</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>120.7427</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>6005</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H25" t="inlineStr"/>
     </row>
@@ -1108,20 +1348,30 @@
           <t>Santa Lucia</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>14.8982</v>
-      </c>
-      <c r="D26" t="n">
-        <v>120.736</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2460</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1000</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14.8982</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>120.736</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H26" t="inlineStr"/>
     </row>
@@ -1134,20 +1384,30 @@
           <t>Santo Niño</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>14.9047</v>
-      </c>
-      <c r="D27" t="n">
-        <v>120.7792</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1000</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>14.9047</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>120.7792</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2544</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H27" t="inlineStr"/>
     </row>
@@ -1160,20 +1420,30 @@
           <t>Sapang Bayan</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>14.9196</v>
-      </c>
-      <c r="D28" t="n">
-        <v>120.7739</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3140</v>
-      </c>
-      <c r="F28" t="n">
-        <v>65</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1000</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>14.9196</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>120.7739</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H28" t="inlineStr"/>
     </row>
@@ -1186,20 +1456,30 @@
           <t>Sergio Bayan</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>14.894</v>
-      </c>
-      <c r="D29" t="n">
-        <v>120.7909</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1727</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1000</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>14.894</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>120.7909</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1727</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H29" t="inlineStr"/>
     </row>
@@ -1212,20 +1492,30 @@
           <t>Sucol</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>14.9138</v>
-      </c>
-      <c r="D30" t="n">
-        <v>120.7701</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1059</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1000</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14.9138</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>120.7701</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="H30" t="inlineStr"/>
     </row>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -477,37 +477,27 @@
     </row>
     <row r="2">
       <c r="A2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Balite</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>14.8956</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>120.7855</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5016</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C2" t="n">
+        <v>14.8956</v>
+      </c>
+      <c r="D2" t="n">
+        <v>120.7855</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5016</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1000</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -520,102 +510,72 @@
           <t>Balungao</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>14.9143</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>120.7622</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5720</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C3" t="n">
+        <v>14.9143</v>
+      </c>
+      <c r="D3" t="n">
+        <v>120.7622</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5720</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Buguion</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>14.894</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>120.7985</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3841</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C4" t="n">
+        <v>14.894</v>
+      </c>
+      <c r="D4" t="n">
+        <v>120.7985</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3841</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Bulusan</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>14.9076</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>120.7455</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2603</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C5" t="n">
+        <v>14.9076</v>
+      </c>
+      <c r="D5" t="n">
+        <v>120.7455</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2603</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
@@ -628,30 +588,20 @@
           <t>Calizon</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>14.9125</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>120.753</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2221</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C6" t="n">
+        <v>14.9125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>120.753</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2221</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1000</v>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
@@ -664,30 +614,20 @@
           <t>Calumpang</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>14.8845</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>120.7838</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3517</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C7" t="n">
+        <v>14.8845</v>
+      </c>
+      <c r="D7" t="n">
+        <v>120.7838</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3517</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1000</v>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -700,30 +640,20 @@
           <t>Caniogan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>14.9054</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>120.7733</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4510</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C8" t="n">
+        <v>14.9054</v>
+      </c>
+      <c r="D8" t="n">
+        <v>120.7733</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4510</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1000</v>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
@@ -736,30 +666,20 @@
           <t>Corazon</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>14.9128</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>120.7686</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2175</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C9" t="n">
+        <v>14.9128</v>
+      </c>
+      <c r="D9" t="n">
+        <v>120.7686</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2175</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1000</v>
       </c>
       <c r="H9" t="inlineStr"/>
     </row>
@@ -772,30 +692,20 @@
           <t>Frances</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>14.9153</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>120.7532</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>6129</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C10" t="n">
+        <v>14.9153</v>
+      </c>
+      <c r="D10" t="n">
+        <v>120.7532</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6129</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1000</v>
       </c>
       <c r="H10" t="inlineStr"/>
     </row>
@@ -808,30 +718,20 @@
           <t>Gatbuca</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>14.9218</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>120.7685</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6384</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C11" t="n">
+        <v>14.9218</v>
+      </c>
+      <c r="D11" t="n">
+        <v>120.7685</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6384</v>
+      </c>
+      <c r="F11" t="n">
+        <v>115</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1000</v>
       </c>
       <c r="H11" t="inlineStr"/>
     </row>
@@ -844,30 +744,20 @@
           <t>Gugo</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>14.9014</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>120.7548</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C12" t="n">
+        <v>14.9014</v>
+      </c>
+      <c r="D12" t="n">
+        <v>120.7548</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1960</v>
+      </c>
+      <c r="F12" t="n">
+        <v>57</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
       </c>
       <c r="H12" t="inlineStr"/>
     </row>
@@ -880,30 +770,20 @@
           <t>Iba Este</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>14.8899</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>120.7673</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4161</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C13" t="n">
+        <v>14.8899</v>
+      </c>
+      <c r="D13" t="n">
+        <v>120.7673</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4161</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1000</v>
       </c>
       <c r="H13" t="inlineStr"/>
     </row>
@@ -916,30 +796,20 @@
           <t>Iba O'Este</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>14.8919</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>120.7635</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>14085</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>601</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C14" t="n">
+        <v>14.8919</v>
+      </c>
+      <c r="D14" t="n">
+        <v>120.7635</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14085</v>
+      </c>
+      <c r="F14" t="n">
+        <v>601</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
       </c>
       <c r="H14" t="inlineStr"/>
     </row>
@@ -952,30 +822,20 @@
           <t>Longos</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>14.8748</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>120.7866</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4265</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C15" t="n">
+        <v>14.8748</v>
+      </c>
+      <c r="D15" t="n">
+        <v>120.7866</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4265</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
       </c>
       <c r="H15" t="inlineStr"/>
     </row>
@@ -988,30 +848,20 @@
           <t>Meysulao</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>14.9078</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>120.7397</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4280</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C16" t="n">
+        <v>14.9078</v>
+      </c>
+      <c r="D16" t="n">
+        <v>120.7397</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4280</v>
+      </c>
+      <c r="F16" t="n">
+        <v>56</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1000</v>
       </c>
       <c r="H16" t="inlineStr"/>
     </row>
@@ -1024,30 +874,20 @@
           <t>Meyto</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>14.8831</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>120.7295</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2925</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C17" t="n">
+        <v>14.8831</v>
+      </c>
+      <c r="D17" t="n">
+        <v>120.7295</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2925</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
       </c>
       <c r="H17" t="inlineStr"/>
     </row>
@@ -1060,30 +900,20 @@
           <t>Palimbang</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>14.8994</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>120.7756</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1684</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C18" t="n">
+        <v>14.8994</v>
+      </c>
+      <c r="D18" t="n">
+        <v>120.7756</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1684</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1000</v>
       </c>
       <c r="H18" t="inlineStr"/>
     </row>
@@ -1096,30 +926,20 @@
           <t>Panducot</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>14.8761</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>120.738</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1752</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C19" t="n">
+        <v>14.8761</v>
+      </c>
+      <c r="D19" t="n">
+        <v>120.738</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1000</v>
       </c>
       <c r="H19" t="inlineStr"/>
     </row>
@@ -1132,30 +952,20 @@
           <t>Pio Cruzcosa</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>14.8881</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>120.7855</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C20" t="n">
+        <v>14.8881</v>
+      </c>
+      <c r="D20" t="n">
+        <v>120.7855</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4663</v>
+      </c>
+      <c r="F20" t="n">
+        <v>92</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1000</v>
       </c>
       <c r="H20" t="inlineStr"/>
     </row>
@@ -1168,30 +978,20 @@
           <t>Poblacion</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>14.9157</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>120.7672</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1785</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C21" t="n">
+        <v>14.9157</v>
+      </c>
+      <c r="D21" t="n">
+        <v>120.7672</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1785</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1000</v>
       </c>
       <c r="H21" t="inlineStr"/>
     </row>
@@ -1204,30 +1004,20 @@
           <t>Pungo</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>14.9023</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>120.7914</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>9528</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C22" t="n">
+        <v>14.9023</v>
+      </c>
+      <c r="D22" t="n">
+        <v>120.7914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9528</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1000</v>
       </c>
       <c r="H22" t="inlineStr"/>
     </row>
@@ -1240,30 +1030,20 @@
           <t>San Jose</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>14.8838</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>120.7395</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>5661</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C23" t="n">
+        <v>14.8838</v>
+      </c>
+      <c r="D23" t="n">
+        <v>120.7395</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5661</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1000</v>
       </c>
       <c r="H23" t="inlineStr"/>
     </row>
@@ -1276,30 +1056,20 @@
           <t>San Marcos</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>14.8976</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>120.7797</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2671</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C24" t="n">
+        <v>14.8976</v>
+      </c>
+      <c r="D24" t="n">
+        <v>120.7797</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2671</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1000</v>
       </c>
       <c r="H24" t="inlineStr"/>
     </row>
@@ -1312,30 +1082,20 @@
           <t>San Miguel</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>14.917</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>120.7427</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>6005</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C25" t="n">
+        <v>14.917</v>
+      </c>
+      <c r="D25" t="n">
+        <v>120.7427</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6005</v>
+      </c>
+      <c r="F25" t="n">
+        <v>17</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1000</v>
       </c>
       <c r="H25" t="inlineStr"/>
     </row>
@@ -1348,30 +1108,20 @@
           <t>Santa Lucia</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>14.8982</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>120.736</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2460</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C26" t="n">
+        <v>14.8982</v>
+      </c>
+      <c r="D26" t="n">
+        <v>120.736</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2460</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1000</v>
       </c>
       <c r="H26" t="inlineStr"/>
     </row>
@@ -1384,30 +1134,20 @@
           <t>Santo Niño</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>14.9047</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>120.7792</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2544</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C27" t="n">
+        <v>14.9047</v>
+      </c>
+      <c r="D27" t="n">
+        <v>120.7792</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2544</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1000</v>
       </c>
       <c r="H27" t="inlineStr"/>
     </row>
@@ -1420,30 +1160,20 @@
           <t>Sapang Bayan</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>14.9196</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>120.7739</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3140</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C28" t="n">
+        <v>14.9196</v>
+      </c>
+      <c r="D28" t="n">
+        <v>120.7739</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3140</v>
+      </c>
+      <c r="F28" t="n">
+        <v>65</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1000</v>
       </c>
       <c r="H28" t="inlineStr"/>
     </row>
@@ -1456,30 +1186,20 @@
           <t>Sergio Bayan</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>14.894</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>120.7909</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1727</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C29" t="n">
+        <v>14.894</v>
+      </c>
+      <c r="D29" t="n">
+        <v>120.7909</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1727</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1000</v>
       </c>
       <c r="H29" t="inlineStr"/>
     </row>
@@ -1492,30 +1212,20 @@
           <t>Sucol</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>14.9138</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>120.7701</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1059</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C30" t="n">
+        <v>14.9138</v>
+      </c>
+      <c r="D30" t="n">
+        <v>120.7701</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1059</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1000</v>
       </c>
       <c r="H30" t="inlineStr"/>
     </row>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -494,10 +494,10 @@
         <v>5016</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -520,10 +520,10 @@
         <v>5720</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -575,13 +575,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
@@ -679,13 +679,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -705,13 +705,13 @@
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         <v>115</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H11" t="inlineStr"/>
     </row>
@@ -757,7 +757,7 @@
         <v>57</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H12" t="inlineStr"/>
     </row>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>601</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H14" t="inlineStr"/>
     </row>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H15" t="inlineStr"/>
     </row>
@@ -861,7 +861,7 @@
         <v>56</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H16" t="inlineStr"/>
     </row>
@@ -887,7 +887,7 @@
         <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H17" t="inlineStr"/>
     </row>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H18" t="inlineStr"/>
     </row>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H19" t="inlineStr"/>
     </row>
@@ -965,13 +965,13 @@
         <v>92</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H21" t="inlineStr"/>
     </row>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H22" t="inlineStr"/>
     </row>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H23" t="inlineStr"/>
     </row>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H24" t="inlineStr"/>
     </row>
@@ -1095,7 +1095,7 @@
         <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H25" t="inlineStr"/>
     </row>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H26" t="inlineStr"/>
     </row>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H27" t="inlineStr"/>
     </row>
@@ -1173,7 +1173,7 @@
         <v>65</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H28" t="inlineStr"/>
     </row>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H29" t="inlineStr"/>
     </row>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H30" t="inlineStr"/>
     </row>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elijah\Documents\GitHub Repositories\ShelterAlloc_Thesis\ProgramSrc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EF2F78-1307-4A69-A5E0-8B9065C348A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="132">
   <si>
     <t>Active</t>
   </si>
@@ -413,13 +407,16 @@
   </si>
   <si>
     <t>65</t>
+  </si>
+  <si>
+    <t>10000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,21 +479,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -534,7 +523,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -568,7 +557,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -603,10 +591,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -779,16 +766,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -833,11 +818,11 @@
       <c r="F2" t="s">
         <v>122</v>
       </c>
-      <c r="G2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -856,13 +841,13 @@
       <c r="F3" t="s">
         <v>122</v>
       </c>
-      <c r="G3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -879,13 +864,13 @@
       <c r="F4" t="s">
         <v>122</v>
       </c>
-      <c r="G4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -902,13 +887,13 @@
       <c r="F5" t="s">
         <v>122</v>
       </c>
-      <c r="G5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -925,11 +910,11 @@
       <c r="F6" t="s">
         <v>122</v>
       </c>
-      <c r="G6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="b">
         <v>1</v>
       </c>
@@ -948,13 +933,13 @@
       <c r="F7" t="s">
         <v>122</v>
       </c>
-      <c r="G7">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -971,13 +956,13 @@
       <c r="F8" t="s">
         <v>122</v>
       </c>
-      <c r="G8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -994,11 +979,11 @@
       <c r="F9" t="s">
         <v>122</v>
       </c>
-      <c r="G9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="b">
         <v>1</v>
       </c>
@@ -1017,11 +1002,11 @@
       <c r="F10" t="s">
         <v>123</v>
       </c>
-      <c r="G10">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="b">
         <v>1</v>
       </c>
@@ -1040,13 +1025,13 @@
       <c r="F11" t="s">
         <v>124</v>
       </c>
-      <c r="G11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1063,13 +1048,13 @@
       <c r="F12" t="s">
         <v>125</v>
       </c>
-      <c r="G12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1086,13 +1071,13 @@
       <c r="F13" t="s">
         <v>122</v>
       </c>
-      <c r="G13">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1109,11 +1094,11 @@
       <c r="F14" t="s">
         <v>126</v>
       </c>
-      <c r="G14">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="b">
         <v>1</v>
       </c>
@@ -1132,13 +1117,13 @@
       <c r="F15" t="s">
         <v>122</v>
       </c>
-      <c r="G15">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1155,13 +1140,13 @@
       <c r="F16" t="s">
         <v>127</v>
       </c>
-      <c r="G16">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1178,11 +1163,11 @@
       <c r="F17" t="s">
         <v>123</v>
       </c>
-      <c r="G17">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="b">
         <v>1</v>
       </c>
@@ -1201,11 +1186,11 @@
       <c r="F18" t="s">
         <v>122</v>
       </c>
-      <c r="G18">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="b">
         <v>1</v>
       </c>
@@ -1224,11 +1209,11 @@
       <c r="F19" t="s">
         <v>122</v>
       </c>
-      <c r="G19">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="b">
         <v>1</v>
       </c>
@@ -1247,13 +1232,13 @@
       <c r="F20" t="s">
         <v>128</v>
       </c>
-      <c r="G20">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -1270,13 +1255,13 @@
       <c r="F21" t="s">
         <v>122</v>
       </c>
-      <c r="G21">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1293,11 +1278,11 @@
       <c r="F22" t="s">
         <v>122</v>
       </c>
-      <c r="G22">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="b">
         <v>1</v>
       </c>
@@ -1316,13 +1301,13 @@
       <c r="F23" t="s">
         <v>122</v>
       </c>
-      <c r="G23">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1339,13 +1324,13 @@
       <c r="F24" t="s">
         <v>122</v>
       </c>
-      <c r="G24">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1362,11 +1347,11 @@
       <c r="F25" t="s">
         <v>129</v>
       </c>
-      <c r="G25">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="b">
         <v>1</v>
       </c>
@@ -1385,13 +1370,13 @@
       <c r="F26" t="s">
         <v>122</v>
       </c>
-      <c r="G26">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -1408,13 +1393,13 @@
       <c r="F27" t="s">
         <v>122</v>
       </c>
-      <c r="G27">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -1431,11 +1416,11 @@
       <c r="F28" t="s">
         <v>130</v>
       </c>
-      <c r="G28">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="b">
         <v>1</v>
       </c>
@@ -1454,13 +1439,13 @@
       <c r="F29" t="s">
         <v>122</v>
       </c>
-      <c r="G29">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -1477,8 +1462,8 @@
       <c r="F30" t="s">
         <v>122</v>
       </c>
-      <c r="G30">
-        <v>10000</v>
+      <c r="G30" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
   <si>
     <t>Active</t>
   </si>
@@ -382,34 +382,94 @@
     <t>1059</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>10000</t>
+    <t>602</t>
+  </si>
+  <si>
+    <t>687</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>767</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>1691</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -819,7 +879,7 @@
         <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -839,15 +899,15 @@
         <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -862,15 +922,15 @@
         <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -885,15 +945,15 @@
         <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -908,10 +968,10 @@
         <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -931,15 +991,15 @@
         <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -954,15 +1014,15 @@
         <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -977,10 +1037,10 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1000,10 +1060,10 @@
         <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1023,15 +1083,15 @@
         <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1046,15 +1106,15 @@
         <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1069,15 +1129,15 @@
         <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1092,10 +1152,10 @@
         <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1115,15 +1175,15 @@
         <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1138,15 +1198,15 @@
         <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1161,10 +1221,10 @@
         <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1184,10 +1244,10 @@
         <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1207,10 +1267,10 @@
         <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1230,15 +1290,15 @@
         <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -1253,15 +1313,15 @@
         <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1276,10 +1336,10 @@
         <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1299,15 +1359,15 @@
         <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1322,15 +1382,15 @@
         <v>115</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1345,10 +1405,10 @@
         <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1368,15 +1428,15 @@
         <v>117</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -1391,15 +1451,15 @@
         <v>118</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -1414,10 +1474,10 @@
         <v>119</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1437,15 +1497,15 @@
         <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -1460,10 +1520,10 @@
         <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -22,10 +22,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>xDegrees</t>
-  </si>
-  <si>
-    <t>yDegrees</t>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
   <si>
     <t>Population</t>

--- a/ProgramSrc/commData.xlsx
+++ b/ProgramSrc/commData.xlsx
@@ -476,756 +476,1104 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="b">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Balite</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>14.8956</v>
-      </c>
-      <c r="D2" t="n">
-        <v>120.7855</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5016</v>
-      </c>
-      <c r="F2" t="n">
-        <v>602</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14.8956</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120.7855</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="b">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Balungao</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>14.9143</v>
-      </c>
-      <c r="D3" t="n">
-        <v>120.7622</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5720</v>
-      </c>
-      <c r="F3" t="n">
-        <v>687</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14.9143</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>120.7622</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="b">
-        <v>1</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Buguion</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>14.894</v>
-      </c>
-      <c r="D4" t="n">
-        <v>120.7985</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3841</v>
-      </c>
-      <c r="F4" t="n">
-        <v>461</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14.894</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.7985</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="b">
-        <v>1</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Bulusan</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>14.9076</v>
-      </c>
-      <c r="D5" t="n">
-        <v>120.7455</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2603</v>
-      </c>
-      <c r="F5" t="n">
-        <v>313</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14.9076</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>120.7455</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2603</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="b">
-        <v>1</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Calizon</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>14.9125</v>
-      </c>
-      <c r="D6" t="n">
-        <v>120.753</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2221</v>
-      </c>
-      <c r="F6" t="n">
-        <v>267</v>
-      </c>
-      <c r="G6" t="n">
-        <v>12</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14.9125</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>120.753</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2221</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="b">
-        <v>1</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Calumpang</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>14.8845</v>
-      </c>
-      <c r="D7" t="n">
-        <v>120.7838</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3517</v>
-      </c>
-      <c r="F7" t="n">
-        <v>423</v>
-      </c>
-      <c r="G7" t="n">
-        <v>12</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14.8845</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>120.7838</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3517</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="b">
-        <v>1</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Caniogan</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>14.9054</v>
-      </c>
-      <c r="D8" t="n">
-        <v>120.7733</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4510</v>
-      </c>
-      <c r="F8" t="n">
-        <v>542</v>
-      </c>
-      <c r="G8" t="n">
-        <v>12</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14.9054</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>120.7733</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4510</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="b">
-        <v>1</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Corazon</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>14.9128</v>
-      </c>
-      <c r="D9" t="n">
-        <v>120.7686</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2175</v>
-      </c>
-      <c r="F9" t="n">
-        <v>261</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14.9128</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>120.7686</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2175</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="b">
-        <v>1</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Frances</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>14.9153</v>
-      </c>
-      <c r="D10" t="n">
-        <v>120.7532</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6129</v>
-      </c>
-      <c r="F10" t="n">
-        <v>736</v>
-      </c>
-      <c r="G10" t="n">
-        <v>12</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14.9153</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>120.7532</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>6129</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="b">
-        <v>1</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Gatbuca</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>14.9218</v>
-      </c>
-      <c r="D11" t="n">
-        <v>120.7685</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6384</v>
-      </c>
-      <c r="F11" t="n">
-        <v>767</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14.9218</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>120.7685</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6384</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="b">
-        <v>1</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Gugo</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>14.9014</v>
-      </c>
-      <c r="D12" t="n">
-        <v>120.7548</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1960</v>
-      </c>
-      <c r="F12" t="n">
-        <v>236</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14.9014</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>120.7548</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="b">
-        <v>1</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Iba Este</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>14.8899</v>
-      </c>
-      <c r="D13" t="n">
-        <v>120.7673</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4161</v>
-      </c>
-      <c r="F13" t="n">
-        <v>500</v>
-      </c>
-      <c r="G13" t="n">
-        <v>12</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14.8899</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>120.7673</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="b">
-        <v>1</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Iba O'Este</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>14.8919</v>
-      </c>
-      <c r="D14" t="n">
-        <v>120.7635</v>
-      </c>
-      <c r="E14" t="n">
-        <v>14085</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1691</v>
-      </c>
-      <c r="G14" t="n">
-        <v>12</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14.8919</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>120.7635</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14085</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1691</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="b">
-        <v>1</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Longos</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>14.8748</v>
-      </c>
-      <c r="D15" t="n">
-        <v>120.7866</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4265</v>
-      </c>
-      <c r="F15" t="n">
-        <v>512</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14.8748</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>120.7866</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="b">
-        <v>1</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Meysulao</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>14.9078</v>
-      </c>
-      <c r="D16" t="n">
-        <v>120.7397</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4280</v>
-      </c>
-      <c r="F16" t="n">
-        <v>514</v>
-      </c>
-      <c r="G16" t="n">
-        <v>12</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14.9078</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>120.7397</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4280</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="b">
-        <v>1</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Meyto</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>14.8831</v>
-      </c>
-      <c r="D17" t="n">
-        <v>120.7295</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2925</v>
-      </c>
-      <c r="F17" t="n">
-        <v>351</v>
-      </c>
-      <c r="G17" t="n">
-        <v>12</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14.8831</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>120.7295</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2925</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="b">
-        <v>1</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Palimbang</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>14.8994</v>
-      </c>
-      <c r="D18" t="n">
-        <v>120.7756</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1684</v>
-      </c>
-      <c r="F18" t="n">
-        <v>203</v>
-      </c>
-      <c r="G18" t="n">
-        <v>12</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14.8994</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>120.7756</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1684</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="b">
-        <v>1</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Panducot</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>14.8761</v>
-      </c>
-      <c r="D19" t="n">
-        <v>120.738</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1752</v>
-      </c>
-      <c r="F19" t="n">
-        <v>211</v>
-      </c>
-      <c r="G19" t="n">
-        <v>12</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14.8761</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>120.738</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1752</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="b">
-        <v>1</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Pio Cruzcosa</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>14.8881</v>
-      </c>
-      <c r="D20" t="n">
-        <v>120.7855</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4663</v>
-      </c>
-      <c r="F20" t="n">
-        <v>560</v>
-      </c>
-      <c r="G20" t="n">
-        <v>12</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14.8881</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>120.7855</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="b">
-        <v>1</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Poblacion</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>14.9157</v>
-      </c>
-      <c r="D21" t="n">
-        <v>120.7672</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1785</v>
-      </c>
-      <c r="F21" t="n">
-        <v>215</v>
-      </c>
-      <c r="G21" t="n">
-        <v>12</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14.9157</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>120.7672</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1785</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="b">
-        <v>1</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Pungo</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>14.9023</v>
-      </c>
-      <c r="D22" t="n">
-        <v>120.7914</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9528</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1144</v>
-      </c>
-      <c r="G22" t="n">
-        <v>12</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14.9023</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>120.7914</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>9528</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1144</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="b">
-        <v>1</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>San Jose</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>14.8838</v>
-      </c>
-      <c r="D23" t="n">
-        <v>120.7395</v>
-      </c>
-      <c r="E23" t="n">
-        <v>5661</v>
-      </c>
-      <c r="F23" t="n">
-        <v>680</v>
-      </c>
-      <c r="G23" t="n">
-        <v>12</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14.8838</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>120.7395</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5661</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="b">
-        <v>1</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>San Marcos</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>14.8976</v>
-      </c>
-      <c r="D24" t="n">
-        <v>120.7797</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2671</v>
-      </c>
-      <c r="F24" t="n">
-        <v>321</v>
-      </c>
-      <c r="G24" t="n">
-        <v>12</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14.8976</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>120.7797</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2671</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="b">
-        <v>1</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>San Miguel</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>14.917</v>
-      </c>
-      <c r="D25" t="n">
-        <v>120.7427</v>
-      </c>
-      <c r="E25" t="n">
-        <v>6005</v>
-      </c>
-      <c r="F25" t="n">
-        <v>721</v>
-      </c>
-      <c r="G25" t="n">
-        <v>12</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14.917</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>120.7427</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>6005</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="b">
-        <v>1</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Santa Lucia</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>14.8982</v>
-      </c>
-      <c r="D26" t="n">
-        <v>120.736</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2460</v>
-      </c>
-      <c r="F26" t="n">
-        <v>296</v>
-      </c>
-      <c r="G26" t="n">
-        <v>12</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14.8982</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>120.736</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="b">
-        <v>1</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Santo Niño</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>14.9047</v>
-      </c>
-      <c r="D27" t="n">
-        <v>120.7792</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F27" t="n">
-        <v>306</v>
-      </c>
-      <c r="G27" t="n">
-        <v>12</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>14.9047</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>120.7792</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2544</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="b">
-        <v>1</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Sapang Bayan</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>14.9196</v>
-      </c>
-      <c r="D28" t="n">
-        <v>120.7739</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3140</v>
-      </c>
-      <c r="F28" t="n">
-        <v>377</v>
-      </c>
-      <c r="G28" t="n">
-        <v>12</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>14.9196</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>120.7739</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="b">
-        <v>1</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Sergio Bayan</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>14.894</v>
-      </c>
-      <c r="D29" t="n">
-        <v>120.7909</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1727</v>
-      </c>
-      <c r="F29" t="n">
-        <v>208</v>
-      </c>
-      <c r="G29" t="n">
-        <v>12</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>14.894</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>120.7909</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1727</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="b">
-        <v>1</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Sucol</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>14.9138</v>
-      </c>
-      <c r="D30" t="n">
-        <v>120.7701</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1059</v>
-      </c>
-      <c r="F30" t="n">
-        <v>128</v>
-      </c>
-      <c r="G30" t="n">
-        <v>12</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14.9138</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>120.7701</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="H30" t="inlineStr"/>
     </row>
